--- a/data/stat probs/kevon harris stat probs - condition.xlsx
+++ b/data/stat probs/kevon harris stat probs - condition.xlsx
@@ -19,24 +19,24 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="16 after 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="16 after 2023 full" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 full" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="16 before 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="16 before 2023 full" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="16 after 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="16 after 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="16 before 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="16 before 2023 full" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="30" state="visible" r:id="rId30"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 full" sheetId="32" state="visible" r:id="rId32"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
@@ -569,28 +569,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -1371,28 +1371,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2173,28 +2173,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -2975,28 +2975,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -3709,1610 +3709,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>40</v>
-      </c>
-      <c r="H3" t="n">
-        <v>60</v>
-      </c>
-      <c r="I3" t="n">
-        <v>60</v>
-      </c>
-      <c r="J3" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>80</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G4" t="n">
-        <v>20</v>
-      </c>
-      <c r="H4" t="n">
-        <v>80</v>
-      </c>
-      <c r="I4" t="n">
-        <v>60</v>
-      </c>
-      <c r="J4" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40</v>
-      </c>
-      <c r="F5" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J5" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" t="n">
-        <v>40</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20</v>
-      </c>
-      <c r="F6" t="n">
-        <v>80</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>60</v>
-      </c>
-      <c r="D7" t="n">
-        <v>40</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="n">
-        <v>80</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>60</v>
-      </c>
-      <c r="D8" t="n">
-        <v>40</v>
-      </c>
-      <c r="E8" t="n">
-        <v>20</v>
-      </c>
-      <c r="F8" t="n">
-        <v>80</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>40</v>
-      </c>
-      <c r="D9" t="n">
-        <v>60</v>
-      </c>
-      <c r="E9" t="n">
-        <v>20</v>
-      </c>
-      <c r="F9" t="n">
-        <v>80</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" t="n">
-        <v>60</v>
-      </c>
-      <c r="E10" t="n">
-        <v>20</v>
-      </c>
-      <c r="F10" t="n">
-        <v>80</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" t="n">
-        <v>60</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>40</v>
-      </c>
-      <c r="D12" t="n">
-        <v>60</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D13" t="n">
-        <v>60</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>40</v>
-      </c>
-      <c r="D14" t="n">
-        <v>60</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
-      </c>
-      <c r="D15" t="n">
-        <v>80</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>20</v>
-      </c>
-      <c r="D16" t="n">
-        <v>80</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>20</v>
-      </c>
-      <c r="D17" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>20</v>
-      </c>
-      <c r="D18" t="n">
-        <v>80</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>20</v>
-      </c>
-      <c r="D19" t="n">
-        <v>80</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>20</v>
-      </c>
-      <c r="D20" t="n">
-        <v>80</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" t="n">
-        <v>80</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>20</v>
-      </c>
-      <c r="D22" t="n">
-        <v>80</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>20</v>
-      </c>
-      <c r="D23" t="n">
-        <v>80</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>20</v>
-      </c>
-      <c r="D24" t="n">
-        <v>80</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>40</v>
-      </c>
-      <c r="H3" t="n">
-        <v>60</v>
-      </c>
-      <c r="I3" t="n">
-        <v>60</v>
-      </c>
-      <c r="J3" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>80</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G4" t="n">
-        <v>20</v>
-      </c>
-      <c r="H4" t="n">
-        <v>80</v>
-      </c>
-      <c r="I4" t="n">
-        <v>60</v>
-      </c>
-      <c r="J4" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40</v>
-      </c>
-      <c r="F5" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J5" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" t="n">
-        <v>40</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20</v>
-      </c>
-      <c r="F6" t="n">
-        <v>80</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>60</v>
-      </c>
-      <c r="D7" t="n">
-        <v>40</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="n">
-        <v>80</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>60</v>
-      </c>
-      <c r="D8" t="n">
-        <v>40</v>
-      </c>
-      <c r="E8" t="n">
-        <v>20</v>
-      </c>
-      <c r="F8" t="n">
-        <v>80</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>40</v>
-      </c>
-      <c r="D9" t="n">
-        <v>60</v>
-      </c>
-      <c r="E9" t="n">
-        <v>20</v>
-      </c>
-      <c r="F9" t="n">
-        <v>80</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" t="n">
-        <v>60</v>
-      </c>
-      <c r="E10" t="n">
-        <v>20</v>
-      </c>
-      <c r="F10" t="n">
-        <v>80</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" t="n">
-        <v>60</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>40</v>
-      </c>
-      <c r="D12" t="n">
-        <v>60</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D13" t="n">
-        <v>60</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>40</v>
-      </c>
-      <c r="D14" t="n">
-        <v>60</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
-      </c>
-      <c r="D15" t="n">
-        <v>80</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>20</v>
-      </c>
-      <c r="D16" t="n">
-        <v>80</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>20</v>
-      </c>
-      <c r="D17" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>20</v>
-      </c>
-      <c r="D18" t="n">
-        <v>80</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>20</v>
-      </c>
-      <c r="D19" t="n">
-        <v>80</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>20</v>
-      </c>
-      <c r="D20" t="n">
-        <v>80</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" t="n">
-        <v>80</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>20</v>
-      </c>
-      <c r="D22" t="n">
-        <v>80</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>20</v>
-      </c>
-      <c r="D23" t="n">
-        <v>80</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>20</v>
-      </c>
-      <c r="D24" t="n">
-        <v>80</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5381,16 +3777,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5399,10 +3795,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -5730,7 +4126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5799,16 +4195,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5817,10 +4213,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -6148,7 +4544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6217,28 +4613,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -6630,7 +5026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6699,28 +5095,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -7112,7 +5508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7181,28 +5577,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -7522,6 +5918,778 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>80</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60</v>
+      </c>
+      <c r="H2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60</v>
+      </c>
+      <c r="J2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40</v>
+      </c>
+      <c r="H3" t="n">
+        <v>60</v>
+      </c>
+      <c r="I3" t="n">
+        <v>40</v>
+      </c>
+      <c r="J3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20</v>
+      </c>
+      <c r="H4" t="n">
+        <v>80</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" t="n">
+        <v>40</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>60</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>60</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>80</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>80</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="n">
+        <v>80</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" t="n">
+        <v>80</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" t="n">
+        <v>80</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2" t="n">
+        <v>67</v>
+      </c>
+      <c r="H2" t="n">
+        <v>33</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>67</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="n">
+        <v>33</v>
+      </c>
+      <c r="H3" t="n">
+        <v>67</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>67</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>67</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7599,28 +6767,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -8338,7 +7506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8401,22 +7569,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8433,28 +7601,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -8465,22 +7633,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -8497,16 +7665,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -8529,10 +7697,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -8561,10 +7729,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -8593,10 +7761,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -8625,10 +7793,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -8657,10 +7825,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -8678,70 +7846,6 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>20</v>
-      </c>
-      <c r="D11" t="n">
-        <v>80</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" t="n">
-        <v>80</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8819,22 +7923,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8851,22 +7955,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -8883,16 +7987,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -8915,16 +8019,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -8947,10 +8051,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -8979,10 +8083,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -9011,10 +8115,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -9043,10 +8147,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -9075,10 +8179,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -9173,22 +8277,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9205,22 +8309,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -9237,16 +8341,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -9269,16 +8373,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -9301,10 +8405,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -9333,10 +8437,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -9365,10 +8469,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -9397,10 +8501,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -9429,10 +8533,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -9527,10 +8631,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -9539,10 +8643,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9559,22 +8663,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -9591,16 +8695,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -9623,10 +8727,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -9655,10 +8759,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -9687,10 +8791,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -9719,10 +8823,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -9751,10 +8855,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -9783,10 +8887,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -9881,10 +8985,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -9893,10 +8997,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9913,22 +9017,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -9945,16 +9049,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -9977,10 +9081,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -10009,10 +9113,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -10041,10 +9145,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -10073,10 +9177,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -10105,10 +9209,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -10137,10 +9241,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -10235,22 +9339,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -10267,22 +9371,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -10299,16 +9403,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -10331,16 +9435,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -10363,10 +9467,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -10395,10 +9499,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -10427,10 +9531,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -10459,10 +9563,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -10491,10 +9595,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -10589,22 +9693,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -10621,22 +9725,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -10653,16 +9757,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -10685,16 +9789,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -10717,10 +9821,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -10749,10 +9853,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -10781,10 +9885,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -10813,10 +9917,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -10845,10 +9949,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -10880,7 +9984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10949,10 +10053,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10975,10 +10079,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -10987,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -11007,10 +10111,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -11028,198 +10132,6 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50</v>
-      </c>
-      <c r="E5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>50</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>50</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
-        <v>50</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>100</v>
       </c>
     </row>
@@ -11234,7 +10146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11303,10 +10215,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11329,10 +10241,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -11341,10 +10253,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -11361,10 +10273,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -11382,198 +10294,6 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50</v>
-      </c>
-      <c r="E5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>50</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>50</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
-        <v>50</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>100</v>
       </c>
     </row>
@@ -11657,16 +10377,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11689,16 +10409,16 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -11721,10 +10441,10 @@
         <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -11813,28 +10533,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -12301,16 +11021,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12333,16 +11053,16 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -12365,10 +11085,10 @@
         <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -12457,16 +11177,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -12619,16 +11339,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -12781,22 +11501,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12943,22 +11663,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13105,22 +11825,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13299,22 +12019,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13505,10 +12225,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13635,10 +12355,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13753,28 +12473,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -14011,28 +12731,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -14493,28 +13213,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -14763,10 +13483,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14893,10 +13613,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15011,22 +13731,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15397,22 +14117,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15789,10 +14509,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15919,10 +14639,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -16049,10 +14769,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -16179,10 +14899,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -16303,22 +15023,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16657,28 +15377,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -17459,22 +16179,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17813,22 +16533,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18167,22 +16887,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18521,28 +17241,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -18811,28 +17531,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -19101,28 +17821,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19391,28 +18111,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19681,16 +18401,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20067,16 +18787,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20453,28 +19173,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -20711,28 +19431,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -21513,28 +20233,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -21777,10 +20497,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21939,10 +20659,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -22095,28 +20815,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -22385,28 +21105,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -22675,28 +21395,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -23061,28 +21781,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -23447,16 +22167,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -23465,10 +22185,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -23673,16 +22393,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -23691,10 +22411,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -23899,22 +22619,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24189,28 +22909,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24991,22 +23711,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25281,22 +24001,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25571,22 +24291,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25861,28 +24581,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -26055,28 +24775,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -26249,16 +24969,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26475,16 +25195,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26701,16 +25421,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26719,10 +25439,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27183,16 +25903,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27201,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27671,10 +26391,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27795,28 +26515,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -28603,10 +27323,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -28727,28 +27447,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -29209,28 +27929,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -29691,28 +28411,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
